--- a/raw_data/selection_taxon_lrr.xlsx
+++ b/raw_data/selection_taxon_lrr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3354DF-0E15-4785-B2DD-332B6A67CD12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E253E-1F3E-4CC0-9C16-96CDB16C75B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,6 +1344,9 @@
       <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D40" s="1">
+        <v>10</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>105</v>
       </c>

--- a/raw_data/selection_taxon_lrr.xlsx
+++ b/raw_data/selection_taxon_lrr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E253E-1F3E-4CC0-9C16-96CDB16C75B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA96B0C-17A2-45B8-B29B-05FFE26136EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Goujon</t>
   </si>
   <si>
-    <t>Grande Alose</t>
-  </si>
-  <si>
     <t>Grémille</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>indigene</t>
+  </si>
+  <si>
+    <t>Grande alose</t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,19 +742,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,13 +888,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,16 +1056,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,13 +1076,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,16 +1090,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,13 +1141,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,13 +1158,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1">
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1">
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1192,13 +1192,13 @@
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1">
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,13 +1209,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,16 +1223,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,10 +1277,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,13 +1291,13 @@
         <v>19</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1">
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,13 +1308,13 @@
         <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1">
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,16 +1322,16 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,16 +1339,16 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1">
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,16 +1356,16 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1">
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1401,16 +1401,16 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1">
         <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,16 +1418,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1">
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,16 +1435,16 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1">
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,16 +1469,16 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1">
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="1">
         <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/selection_taxon_lrr.xlsx
+++ b/raw_data/selection_taxon_lrr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA96B0C-17A2-45B8-B29B-05FFE26136EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13409B-11AD-47D8-A607-E49F2A40D609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +1127,7 @@
         <v>85</v>
       </c>
       <c r="D27" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>104</v>

--- a/raw_data/selection_taxon_lrr.xlsx
+++ b/raw_data/selection_taxon_lrr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13409B-11AD-47D8-A607-E49F2A40D609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F02AD-6D91-4D96-AFED-9BEBC84C5189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>esp_code_alternatif</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Grande alose</t>
+  </si>
+  <si>
+    <t>duree_etude_LRR</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,14 +745,13 @@
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
@@ -750,14 +761,17 @@
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -767,11 +781,11 @@
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -781,11 +795,17 @@
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -795,11 +815,11 @@
       <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -809,11 +829,11 @@
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -823,11 +843,11 @@
       <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -837,11 +857,11 @@
       <c r="C7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -851,11 +871,11 @@
       <c r="C8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -865,11 +885,11 @@
       <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -879,11 +899,11 @@
       <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -893,11 +913,11 @@
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -907,11 +927,11 @@
       <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -921,11 +941,11 @@
       <c r="C13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -935,11 +955,11 @@
       <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -949,11 +969,11 @@
       <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -963,11 +983,11 @@
       <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -977,11 +997,11 @@
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -991,11 +1011,11 @@
       <c r="C18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1005,11 +1025,11 @@
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1019,11 +1039,11 @@
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1033,11 +1053,11 @@
       <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1047,11 +1067,11 @@
       <c r="C22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1061,14 +1081,17 @@
       <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1078,14 +1101,17 @@
       <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1095,14 +1121,17 @@
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1112,11 +1141,11 @@
       <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1126,14 +1155,17 @@
       <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="1">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1">
         <v>32</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1143,14 +1175,17 @@
       <c r="C28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1160,14 +1195,17 @@
       <c r="C29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
         <v>15</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1177,14 +1215,17 @@
       <c r="C30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
         <v>15</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1194,14 +1235,17 @@
       <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
         <v>15</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1211,14 +1255,17 @@
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1228,14 +1275,17 @@
       <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
         <v>18</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1245,14 +1295,17 @@
       <c r="C34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
         <v>10</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1262,14 +1315,17 @@
       <c r="C35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1279,11 +1335,11 @@
       <c r="C36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1293,14 +1349,17 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
         <v>12</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1310,14 +1369,17 @@
       <c r="C38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
         <v>10</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1327,14 +1389,17 @@
       <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
         <v>15</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1344,14 +1409,14 @@
       <c r="C40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="1">
         <v>10</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1361,14 +1426,17 @@
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
         <v>18</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -1378,11 +1446,11 @@
       <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1392,11 +1460,11 @@
       <c r="C43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1406,14 +1474,17 @@
       <c r="C44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
         <v>12</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -1423,14 +1494,17 @@
       <c r="C45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
         <v>15</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -1440,14 +1514,17 @@
       <c r="C46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
         <v>10</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1457,14 +1534,17 @@
       <c r="C47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
         <v>15</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1474,14 +1554,17 @@
       <c r="C48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
         <v>10</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1491,14 +1574,17 @@
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
         <v>12</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -1508,20 +1594,18 @@
       <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
         <v>12</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D51" xr:uid="{3E2E517C-8B10-4244-A34A-9A46EFCACAB2}">
-    <sortState ref="A2:D50">
-      <sortCondition ref="A1:A51"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:D50">
+  <sortState ref="A2:C50">
     <sortCondition ref="B5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/selection_taxon_lrr.xlsx
+++ b/raw_data/selection_taxon_lrr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F02AD-6D91-4D96-AFED-9BEBC84C5189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E1FFA-72A2-49EB-871A-EF65691488C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>esp_code_alternatif</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>Grande alose</t>
-  </si>
-  <si>
-    <t>duree_etude_LRR</t>
   </si>
 </sst>
 </file>
@@ -734,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,11 +744,10 @@
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
@@ -767,11 +763,8 @@
       <c r="E1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -785,7 +778,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -801,11 +794,8 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -819,7 +809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -833,7 +823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -847,7 +837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -861,7 +851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -875,7 +865,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -889,7 +879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -903,7 +893,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -917,7 +907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -931,7 +921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -945,7 +935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -959,7 +949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -973,7 +963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -987,7 +977,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1001,7 +991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1015,7 +1005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1029,7 +1019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1043,7 +1033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1057,7 +1047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1071,7 +1061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1087,11 +1077,8 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1107,11 +1094,8 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1127,11 +1111,8 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1145,7 +1126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1161,11 +1142,8 @@
       <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="F27" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1181,11 +1159,8 @@
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1201,11 +1176,8 @@
       <c r="E29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1221,11 +1193,8 @@
       <c r="E30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1241,11 +1210,8 @@
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1261,11 +1227,8 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1281,11 +1244,8 @@
       <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="F33" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1301,11 +1261,8 @@
       <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1321,11 +1278,8 @@
       <c r="E35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1339,7 +1293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1355,11 +1309,8 @@
       <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1375,11 +1326,8 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-      <c r="F38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1395,11 +1343,8 @@
       <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="F39" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1412,11 +1357,8 @@
       <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1432,11 +1374,8 @@
       <c r="E41" s="1">
         <v>6</v>
       </c>
-      <c r="F41" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -1450,7 +1389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1464,7 +1403,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1480,11 +1419,8 @@
       <c r="E44" s="1">
         <v>4</v>
       </c>
-      <c r="F44" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -1500,11 +1436,8 @@
       <c r="E45" s="1">
         <v>5</v>
       </c>
-      <c r="F45" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -1520,11 +1453,8 @@
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1540,11 +1470,8 @@
       <c r="E47" s="1">
         <v>5</v>
       </c>
-      <c r="F47" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1560,11 +1487,8 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1580,11 +1504,8 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -1599,9 +1520,6 @@
       </c>
       <c r="E50" s="1">
         <v>4</v>
-      </c>
-      <c r="F50" s="1">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/selection_taxon_lrr.xlsx
+++ b/raw_data/selection_taxon_lrr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E1FFA-72A2-49EB-871A-EF65691488C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E392F9D-2B42-4413-B592-1C54ED56D954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>esp_code_alternatif</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>Grande alose</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>statut_espece_lrr_2015</t>
   </si>
 </sst>
 </file>
@@ -731,10 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
-  <dimension ref="A1:E50"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +760,11 @@
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
@@ -763,8 +780,11 @@
       <c r="E1" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -778,7 +798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -795,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -809,7 +829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -823,7 +843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -837,7 +857,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -851,7 +871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -865,7 +885,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -879,7 +899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -893,7 +913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -907,7 +927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -921,7 +941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -935,7 +955,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -949,7 +969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -963,7 +983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -977,7 +997,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1005,7 +1025,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1019,7 +1039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1033,7 +1053,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1047,7 +1067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1061,7 +1081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1095,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -1126,7 +1146,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1140,10 +1160,13 @@
         <v>104</v>
       </c>
       <c r="E27" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1160,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1177,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1193,8 +1216,11 @@
       <c r="E30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1211,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1227,8 +1253,11 @@
       <c r="E32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1244,8 +1273,11 @@
       <c r="E33" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1262,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1279,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1293,7 +1325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1309,8 +1341,11 @@
       <c r="E37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1326,8 +1361,11 @@
       <c r="E38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1343,8 +1381,11 @@
       <c r="E39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1358,7 +1399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1374,8 +1415,11 @@
       <c r="E41" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -1389,7 +1433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1403,7 +1447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1419,8 +1463,11 @@
       <c r="E44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -1437,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -1453,8 +1500,11 @@
       <c r="E46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1471,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1487,8 +1537,11 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1504,8 +1557,11 @@
       <c r="E49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -1521,8 +1577,18 @@
       <c r="E50" s="1">
         <v>4</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F50" xr:uid="{909599AC-7C19-4796-94BF-7494204D17F1}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="indigene"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:C50">
     <sortCondition ref="B5"/>
   </sortState>
